--- a/Data_analysis/Excel_함수_매크로_실무_적용/총무경리/구매발주서/구매발주서연습.xlsx
+++ b/Data_analysis/Excel_함수_매크로_실무_적용/총무경리/구매발주서/구매발주서연습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/Excel_함수_매크로_실무_적용/총무경리/구매발주서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F554A2D-FE36-C340-AA0E-676561355CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7B4D0-079F-EF44-892B-EB677BA0BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">구매발주대장!$A$4:$H$39</definedName>
+    <definedName name="목록표">구매발주대장!$A$4:$H$39</definedName>
+    <definedName name="복사표">구매발주대장!$J$7:$N$7</definedName>
+    <definedName name="조건표">구매발주대장!$J$4:$K$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>결  재</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -725,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,10 +917,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,7 +1712,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="17.25" customHeight="1"/>
@@ -1810,11 +1809,17 @@
         <v>10000</v>
       </c>
       <c r="H5" s="3">
-        <f>IF(F5="", "", F5*G5 + F5*G5*0.1)</f>
+        <f>IF(ISBLANK(F5), "", F5*G5 + F5*G5*0.1)</f>
         <v>550000</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="9">
+        <f>구매발주서!F7</f>
+        <v>43833</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f>구매발주서!A5</f>
+        <v>동신물산</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1">
       <c r="A6" s="30">
@@ -1837,7 +1842,7 @@
         <v>12000</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H39" si="0">IF(F6="", "", F6*G6 + F6*G6*0.1)</f>
+        <f t="shared" ref="H6:H39" si="0">IF(ISBLANK(F6), "", F6*G6 + F6*G6*0.1)</f>
         <v>528000</v>
       </c>
     </row>
@@ -2524,7 +2529,7 @@
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
-      <c r="H39" s="48" t="str">
+      <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2597,8 +2602,8 @@
   </sheetPr>
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.3984375" defaultRowHeight="18.75" customHeight="1"/>
@@ -2610,496 +2615,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
     </row>
     <row r="2" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
     </row>
     <row r="3" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
     </row>
     <row r="4" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
     </row>
     <row r="5" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82" t="s">
+      <c r="A5" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="T5" s="83" t="s">
+      <c r="O5" s="81"/>
+      <c r="T5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="86" t="s">
+      <c r="U5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70" t="s">
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70" t="s">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70" t="s">
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="71"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="70"/>
     </row>
     <row r="6" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="77"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="76"/>
     </row>
     <row r="7" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="78"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="60">
+        <v>43833</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="77"/>
     </row>
     <row r="8" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="79"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="78"/>
     </row>
     <row r="9" spans="1:36" ht="17.25" customHeight="1"/>
     <row r="10" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
     </row>
     <row r="11" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
     </row>
     <row r="12" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
     </row>
     <row r="13" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="67" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="69"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
     </row>
     <row r="15" spans="1:36" ht="21" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49" t="s">
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49" t="s">
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49" t="s">
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
     </row>
     <row r="16" spans="1:36" ht="21" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>1</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -3111,35 +3120,35 @@
       <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:36" ht="21" customHeight="1">
-      <c r="A17" s="49">
+      <c r="A17" s="48">
         <v>2</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -3151,35 +3160,35 @@
       <c r="AJ17" s="2"/>
     </row>
     <row r="18" spans="1:36" ht="21" customHeight="1">
-      <c r="A18" s="49">
+      <c r="A18" s="48">
         <v>3</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -3191,35 +3200,35 @@
       <c r="AJ18" s="2"/>
     </row>
     <row r="19" spans="1:36" ht="21" customHeight="1">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>4</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -3231,35 +3240,35 @@
       <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36" ht="21" customHeight="1">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>5</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -3271,35 +3280,35 @@
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="21" customHeight="1">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>6</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -3311,35 +3320,35 @@
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="21" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="48">
         <v>7</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -3351,35 +3360,35 @@
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="21" customHeight="1">
-      <c r="A23" s="49">
+      <c r="A23" s="48">
         <v>8</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -3391,35 +3400,35 @@
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36" ht="21" customHeight="1">
-      <c r="A24" s="49">
+      <c r="A24" s="48">
         <v>9</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -3431,35 +3440,35 @@
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36" ht="21" customHeight="1">
-      <c r="A25" s="49">
+      <c r="A25" s="48">
         <v>10</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -3471,35 +3480,35 @@
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36" ht="21" customHeight="1">
-      <c r="A26" s="49">
+      <c r="A26" s="48">
         <v>11</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -3511,35 +3520,35 @@
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36" ht="21" customHeight="1">
-      <c r="A27" s="49">
+      <c r="A27" s="48">
         <v>12</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -3551,35 +3560,35 @@
       <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36" ht="21" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="48">
         <v>13</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -3591,35 +3600,35 @@
       <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="1:36" ht="21" customHeight="1">
-      <c r="A29" s="49">
+      <c r="A29" s="48">
         <v>14</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -3631,35 +3640,35 @@
       <c r="AJ29" s="2"/>
     </row>
     <row r="30" spans="1:36" ht="21" customHeight="1">
-      <c r="A30" s="49">
+      <c r="A30" s="48">
         <v>15</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -3671,35 +3680,35 @@
       <c r="AJ30" s="2"/>
     </row>
     <row r="31" spans="1:36" ht="21" customHeight="1">
-      <c r="A31" s="49">
+      <c r="A31" s="48">
         <v>16</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -3711,35 +3720,35 @@
       <c r="AJ31" s="2"/>
     </row>
     <row r="32" spans="1:36" ht="21" customHeight="1">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>17</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
@@ -3751,35 +3760,35 @@
       <c r="AJ32" s="2"/>
     </row>
     <row r="33" spans="1:36" ht="21" customHeight="1">
-      <c r="A33" s="49">
+      <c r="A33" s="48">
         <v>18</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -3791,35 +3800,35 @@
       <c r="AJ33" s="2"/>
     </row>
     <row r="34" spans="1:36" ht="21" customHeight="1">
-      <c r="A34" s="49">
+      <c r="A34" s="48">
         <v>19</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -3831,35 +3840,35 @@
       <c r="AJ34" s="2"/>
     </row>
     <row r="35" spans="1:36" ht="21" customHeight="1">
-      <c r="A35" s="49">
+      <c r="A35" s="48">
         <v>20</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
